--- a/Education_HES10_detailed.xlsx
+++ b/Education_HES10_detailed.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Education_by_age" sheetId="1" r:id="rId2"/>
     <sheet name="Education_by_income" sheetId="3" r:id="rId3"/>
+    <sheet name="Childcare_by_income" sheetId="4" r:id="rId4"/>
+    <sheet name="Childcare_by_age" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
   <si>
     <t>130202      Education fees for primary and secondary schools</t>
   </si>
@@ -272,6 +274,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>080105      Child care services</t>
   </si>
 </sst>
 </file>
@@ -490,7 +495,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,6 +510,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="83" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="99" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="99" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="116">
@@ -1582,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2154,4 +2172,121 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>5.97</v>
+      </c>
+      <c r="E2" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="F2" s="15">
+        <v>21.73</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="18">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C2" s="17">
+        <v>13.26</v>
+      </c>
+      <c r="D2" s="17">
+        <v>25.96</v>
+      </c>
+      <c r="E2" s="17">
+        <v>3.84</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>